--- a/scripts/amg/upgrade_points.xlsx
+++ b/scripts/amg/upgrade_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan/workspace/xwing/xwing-data2/scripts/amg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2E606-51D6-4B46-819F-78DB8A6A0358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E331FE8F-2805-8946-ADCB-78432C7301E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="18960" windowHeight="11320" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="18960" windowHeight="11320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -1801,16 +1801,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>•Kuill</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Scum, Medium or Large ship</t>
     </r>
   </si>
@@ -6901,6 +6891,9 @@
       </rPr>
       <t>19</t>
     </r>
+  </si>
+  <si>
+    <t>•Kuiil</t>
   </si>
 </sst>
 </file>
@@ -53752,7 +53745,7 @@
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -53783,7 +53776,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>62</v>
@@ -53792,7 +53785,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -53803,7 +53796,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>62</v>
@@ -53812,7 +53805,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
@@ -53823,7 +53816,7 @@
     </row>
     <row r="6" spans="1:7" ht="23.5" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>62</v>
@@ -53832,7 +53825,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
@@ -53843,7 +53836,7 @@
     </row>
     <row r="7" spans="1:7" ht="28.5" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -53908,7 +53901,7 @@
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -53939,7 +53932,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>69</v>
@@ -53948,7 +53941,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>58</v>
@@ -53959,7 +53952,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>69</v>
@@ -53968,7 +53961,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
@@ -53988,7 +53981,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
@@ -53999,7 +53992,7 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>69</v>
@@ -54008,7 +54001,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
@@ -54019,7 +54012,7 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>69</v>
@@ -54028,7 +54021,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
@@ -54039,7 +54032,7 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>69</v>
@@ -54048,7 +54041,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -54059,7 +54052,7 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>69</v>
@@ -54068,7 +54061,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>12</v>
@@ -54079,7 +54072,7 @@
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>69</v>
@@ -54088,7 +54081,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
@@ -54099,7 +54092,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>69</v>
@@ -54108,7 +54101,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>12</v>
@@ -54119,7 +54112,7 @@
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -54128,7 +54121,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>12</v>
@@ -54139,7 +54132,7 @@
     </row>
     <row r="14" spans="1:7" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>10</v>
@@ -54148,7 +54141,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>12</v>
@@ -54159,14 +54152,14 @@
     </row>
     <row r="15" spans="1:7" ht="17.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>58</v>
@@ -54177,16 +54170,16 @@
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>12</v>
@@ -54197,7 +54190,7 @@
     </row>
     <row r="17" spans="1:6" ht="17.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>21</v>
@@ -54206,7 +54199,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
@@ -54217,7 +54210,7 @@
     </row>
     <row r="18" spans="1:6" ht="17.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>21</v>
@@ -54226,7 +54219,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
@@ -54266,7 +54259,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>12</v>
@@ -54286,7 +54279,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>12</v>
@@ -54297,7 +54290,7 @@
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -54306,7 +54299,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>12</v>
@@ -54317,7 +54310,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>21</v>
@@ -54326,7 +54319,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>12</v>
@@ -54337,7 +54330,7 @@
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>21</v>
@@ -54346,7 +54339,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>12</v>
@@ -54357,7 +54350,7 @@
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>21</v>
@@ -54366,7 +54359,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>12</v>
@@ -54377,7 +54370,7 @@
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>21</v>
@@ -54386,7 +54379,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>12</v>
@@ -54397,7 +54390,7 @@
     </row>
     <row r="27" spans="1:6" ht="23.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>21</v>
@@ -54417,7 +54410,7 @@
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>21</v>
@@ -54426,7 +54419,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>12</v>
@@ -54437,7 +54430,7 @@
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>21</v>
@@ -54446,7 +54439,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>12</v>
@@ -54457,7 +54450,7 @@
     </row>
     <row r="30" spans="1:6" ht="23.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>44</v>
@@ -54466,7 +54459,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>12</v>
@@ -54477,16 +54470,16 @@
     </row>
     <row r="31" spans="1:6" ht="29.25" customHeight="1">
       <c r="A31" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="C31" s="5">
         <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>12</v>
@@ -54497,16 +54490,16 @@
     </row>
     <row r="32" spans="1:6" ht="29.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>12</v>
@@ -54517,7 +54510,7 @@
     </row>
     <row r="33" spans="1:7" ht="28.5" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -54582,7 +54575,7 @@
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -54613,16 +54606,16 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="C4" s="5">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -54642,7 +54635,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
@@ -54653,7 +54646,7 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>49</v>
@@ -54662,7 +54655,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
@@ -54673,7 +54666,7 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>49</v>
@@ -54682,7 +54675,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
@@ -54693,7 +54686,7 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>49</v>
@@ -54702,7 +54695,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
@@ -54722,7 +54715,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -54733,16 +54726,16 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>12</v>
@@ -54753,7 +54746,7 @@
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>55</v>
@@ -54762,7 +54755,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
@@ -54773,7 +54766,7 @@
     </row>
     <row r="12" spans="1:7" ht="28.5" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -54838,7 +54831,7 @@
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -54869,7 +54862,7 @@
     </row>
     <row r="4" spans="1:7" ht="23" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -54887,7 +54880,7 @@
     </row>
     <row r="5" spans="1:7" ht="23.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -54896,7 +54889,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
@@ -54907,7 +54900,7 @@
     </row>
     <row r="6" spans="1:7" ht="23.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -54916,7 +54909,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
@@ -54927,7 +54920,7 @@
     </row>
     <row r="7" spans="1:7" ht="23.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -54954,7 +54947,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
@@ -54965,7 +54958,7 @@
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
@@ -54974,7 +54967,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -54985,7 +54978,7 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -54994,7 +54987,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>12</v>
@@ -55005,7 +54998,7 @@
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -55014,7 +55007,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
@@ -55045,7 +55038,7 @@
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>21</v>
@@ -55065,7 +55058,7 @@
     </row>
     <row r="14" spans="1:7" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>21</v>
@@ -55074,7 +55067,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>58</v>
@@ -55085,7 +55078,7 @@
     </row>
     <row r="15" spans="1:7" ht="17.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>21</v>
@@ -55094,7 +55087,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>12</v>
@@ -55105,7 +55098,7 @@
     </row>
     <row r="16" spans="1:7" ht="23.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>44</v>
@@ -55114,7 +55107,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>12</v>
@@ -55154,7 +55147,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
@@ -55165,16 +55158,16 @@
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1">
       <c r="A19" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>12</v>
@@ -55185,16 +55178,16 @@
     </row>
     <row r="20" spans="1:6" ht="17.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>12</v>
@@ -55205,16 +55198,16 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>12</v>
@@ -55225,16 +55218,16 @@
     </row>
     <row r="22" spans="1:6" ht="23.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>12</v>
@@ -55245,16 +55238,16 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="C23" s="5">
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>12</v>
@@ -55265,16 +55258,16 @@
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="C24" s="5">
         <v>6</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>12</v>
@@ -55285,16 +55278,16 @@
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C25" s="5">
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>12</v>
@@ -55305,16 +55298,16 @@
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C26" s="5">
         <v>10</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>12</v>
@@ -55325,16 +55318,16 @@
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C27" s="5">
         <v>10</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>12</v>
@@ -55345,16 +55338,16 @@
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C28" s="5">
         <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>12</v>
@@ -55365,7 +55358,7 @@
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>55</v>
@@ -55374,7 +55367,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>12</v>
@@ -55385,7 +55378,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>55</v>
@@ -55394,7 +55387,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>12</v>
@@ -55405,7 +55398,7 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -55414,7 +55407,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>12</v>
@@ -55425,7 +55418,7 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>62</v>
@@ -55434,7 +55427,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>12</v>
@@ -55445,7 +55438,7 @@
     </row>
     <row r="33" spans="1:7" ht="28.5" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -55510,7 +55503,7 @@
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -55541,7 +55534,7 @@
     </row>
     <row r="4" spans="1:7" ht="32.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>62</v>
@@ -55550,7 +55543,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -55561,7 +55554,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>62</v>
@@ -55570,7 +55563,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
@@ -55581,7 +55574,7 @@
     </row>
     <row r="6" spans="1:7" ht="28.5" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -55646,7 +55639,7 @@
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -55677,7 +55670,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>69</v>
@@ -55695,7 +55688,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>69</v>
@@ -55713,7 +55706,7 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>69</v>
@@ -55722,7 +55715,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
@@ -55733,7 +55726,7 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>69</v>
@@ -55751,7 +55744,7 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>69</v>
@@ -55769,10 +55762,10 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C9" s="5">
         <v>4</v>
@@ -55787,10 +55780,10 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" s="5">
         <v>4</v>
@@ -55805,10 +55798,10 @@
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" s="5">
         <v>6</v>
@@ -55823,10 +55816,10 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
@@ -55841,10 +55834,10 @@
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
@@ -55859,10 +55852,10 @@
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="C14" s="5">
         <v>3</v>
@@ -55877,10 +55870,10 @@
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C15" s="5">
         <v>7</v>
@@ -55895,7 +55888,7 @@
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>10</v>
@@ -55904,7 +55897,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>12</v>
@@ -55915,7 +55908,7 @@
     </row>
     <row r="17" spans="1:6" ht="23.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -55924,7 +55917,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
@@ -55935,7 +55928,7 @@
     </row>
     <row r="18" spans="1:6" ht="17.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>21</v>
@@ -55953,7 +55946,7 @@
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>21</v>
@@ -55971,7 +55964,7 @@
     </row>
     <row r="20" spans="1:6" ht="17.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>21</v>
@@ -55989,7 +55982,7 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
@@ -56007,7 +56000,7 @@
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -56025,7 +56018,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>21</v>
@@ -56043,7 +56036,7 @@
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>21</v>
@@ -56061,7 +56054,7 @@
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>21</v>
@@ -56070,7 +56063,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>12</v>
@@ -56081,10 +56074,10 @@
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C26" s="5">
         <v>2</v>
@@ -56099,16 +56092,16 @@
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>12</v>
@@ -56119,16 +56112,16 @@
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C28" s="5">
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>12</v>
@@ -56139,10 +56132,10 @@
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C29" s="5">
         <v>5</v>
@@ -56157,16 +56150,16 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C30" s="5">
         <v>4</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>12</v>
@@ -56177,10 +56170,10 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C31" s="5">
         <v>3</v>
@@ -56195,10 +56188,10 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
@@ -56213,16 +56206,16 @@
     </row>
     <row r="33" spans="1:7" ht="17.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C33" s="5">
         <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>12</v>
@@ -56233,16 +56226,16 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C34" s="5">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>12</v>
@@ -56253,7 +56246,7 @@
     </row>
     <row r="35" spans="1:7" ht="28.5" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -56318,7 +56311,7 @@
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -56349,16 +56342,16 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C4" s="5">
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>58</v>
@@ -56369,10 +56362,10 @@
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -56387,10 +56380,10 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C6" s="5">
         <v>6</v>
@@ -56405,10 +56398,10 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
@@ -56423,16 +56416,16 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C8" s="5">
         <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>58</v>
@@ -56443,7 +56436,7 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>49</v>
@@ -56461,7 +56454,7 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>49</v>
@@ -56479,7 +56472,7 @@
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>49</v>
@@ -56497,7 +56490,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>49</v>
@@ -56515,7 +56508,7 @@
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>49</v>
@@ -56524,7 +56517,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>12</v>
@@ -56535,7 +56528,7 @@
     </row>
     <row r="14" spans="1:7" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>49</v>
@@ -56544,7 +56537,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>12</v>
@@ -56555,7 +56548,7 @@
     </row>
     <row r="15" spans="1:7" ht="17.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>49</v>
@@ -56573,16 +56566,16 @@
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>12</v>
@@ -56593,16 +56586,16 @@
     </row>
     <row r="17" spans="1:6" ht="17.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
@@ -56613,16 +56606,16 @@
     </row>
     <row r="18" spans="1:6" ht="17.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="5">
         <v>4</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
@@ -56633,10 +56626,10 @@
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
@@ -56651,10 +56644,10 @@
     </row>
     <row r="20" spans="1:6" ht="17.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="5">
         <v>2</v>
@@ -56669,10 +56662,10 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
@@ -56687,10 +56680,10 @@
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
@@ -56705,16 +56698,16 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>12</v>
@@ -56725,10 +56718,10 @@
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="5">
         <v>8</v>
@@ -56743,10 +56736,10 @@
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="5">
         <v>3</v>
@@ -56761,16 +56754,16 @@
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="5">
         <v>4</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>12</v>
@@ -56781,10 +56774,10 @@
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C27" s="5">
         <v>4</v>
@@ -56799,10 +56792,10 @@
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C28" s="5">
         <v>4</v>
@@ -56817,10 +56810,10 @@
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C29" s="5">
         <v>6</v>
@@ -56835,10 +56828,10 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C30" s="5">
         <v>5</v>
@@ -56853,10 +56846,10 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
@@ -56871,10 +56864,10 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C32" s="5">
         <v>5</v>
@@ -56889,10 +56882,10 @@
     </row>
     <row r="33" spans="1:7" ht="17.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C33" s="5">
         <v>8</v>
@@ -56907,10 +56900,10 @@
     </row>
     <row r="34" spans="1:7" ht="29.25" customHeight="1">
       <c r="A34" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="C34" s="5">
         <v>5</v>
@@ -56925,10 +56918,10 @@
     </row>
     <row r="35" spans="1:7" ht="29.25" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C35" s="5">
         <v>8</v>
@@ -56943,7 +56936,7 @@
     </row>
     <row r="36" spans="1:7" ht="28.5" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -57008,7 +57001,7 @@
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -57039,10 +57032,10 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
@@ -57057,10 +57050,10 @@
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
@@ -57075,16 +57068,16 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
@@ -57095,16 +57088,16 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
@@ -57115,16 +57108,16 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="5">
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
@@ -57135,16 +57128,16 @@
     </row>
     <row r="9" spans="1:7" ht="23.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="5">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -57155,16 +57148,16 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="5">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>12</v>
@@ -57175,10 +57168,10 @@
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -57193,16 +57186,16 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>12</v>
@@ -57213,10 +57206,10 @@
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
@@ -57231,16 +57224,16 @@
     </row>
     <row r="14" spans="1:7" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="5">
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>12</v>
@@ -57251,10 +57244,10 @@
     </row>
     <row r="15" spans="1:7" ht="17.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="5">
         <v>4</v>
@@ -57269,16 +57262,16 @@
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="5">
         <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>12</v>
@@ -57289,10 +57282,10 @@
     </row>
     <row r="17" spans="1:6" ht="17.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -57307,16 +57300,16 @@
     </row>
     <row r="18" spans="1:6" ht="17.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
@@ -57327,10 +57320,10 @@
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="5">
         <v>6</v>
@@ -57345,16 +57338,16 @@
     </row>
     <row r="20" spans="1:6" ht="17.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="5">
         <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>12</v>
@@ -57365,10 +57358,10 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="5">
         <v>5</v>
@@ -57383,10 +57376,10 @@
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" s="5">
         <v>6</v>
@@ -57401,16 +57394,16 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>12</v>
@@ -57421,10 +57414,10 @@
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
@@ -57439,10 +57432,10 @@
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C25" s="5">
         <v>4</v>
@@ -57457,10 +57450,10 @@
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C26" s="5">
         <v>5</v>
@@ -57475,10 +57468,10 @@
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C27" s="5">
         <v>4</v>
@@ -57493,10 +57486,10 @@
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C28" s="5">
         <v>3</v>
@@ -57511,10 +57504,10 @@
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C29" s="5">
         <v>4</v>
@@ -57529,10 +57522,10 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C30" s="5">
         <v>4</v>
@@ -57547,10 +57540,10 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C31" s="5">
         <v>6</v>
@@ -57565,10 +57558,10 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C32" s="5">
         <v>3</v>
@@ -57583,10 +57576,10 @@
     </row>
     <row r="33" spans="1:7" ht="17.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C33" s="5">
         <v>5</v>
@@ -57601,7 +57594,7 @@
     </row>
     <row r="34" spans="1:7" ht="28.5" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -57666,7 +57659,7 @@
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -57697,16 +57690,16 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="C4" s="5">
         <v>8</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -57717,10 +57710,10 @@
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -57735,10 +57728,10 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>484</v>
       </c>
       <c r="C6" s="5">
         <v>12</v>
@@ -57753,10 +57746,10 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C7" s="5">
         <v>9</v>
@@ -57771,10 +57764,10 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
@@ -57789,10 +57782,10 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
@@ -57807,10 +57800,10 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C10" s="5">
         <v>6</v>
@@ -57825,7 +57818,7 @@
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>55</v>
@@ -57834,7 +57827,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
@@ -57845,7 +57838,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>55</v>
@@ -57863,7 +57856,7 @@
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>55</v>
@@ -57881,7 +57874,7 @@
     </row>
     <row r="14" spans="1:7" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>55</v>
@@ -57890,7 +57883,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>12</v>
@@ -57901,7 +57894,7 @@
     </row>
     <row r="15" spans="1:7" ht="17.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>55</v>
@@ -57910,7 +57903,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>12</v>
@@ -57921,7 +57914,7 @@
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>55</v>
@@ -57939,7 +57932,7 @@
     </row>
     <row r="17" spans="1:6" ht="17.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>55</v>
@@ -57948,7 +57941,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
@@ -57959,7 +57952,7 @@
     </row>
     <row r="18" spans="1:6" ht="17.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>55</v>
@@ -57968,7 +57961,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
@@ -57979,7 +57972,7 @@
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>55</v>
@@ -57988,7 +57981,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>12</v>
@@ -57999,7 +57992,7 @@
     </row>
     <row r="20" spans="1:6" ht="17.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>55</v>
@@ -58008,7 +58001,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>12</v>
@@ -58019,7 +58012,7 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>55</v>
@@ -58037,7 +58030,7 @@
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>55</v>
@@ -58046,7 +58039,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>12</v>
@@ -58057,7 +58050,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>55</v>
@@ -58066,7 +58059,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>12</v>
@@ -58077,7 +58070,7 @@
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>55</v>
@@ -58095,7 +58088,7 @@
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>55</v>
@@ -58104,7 +58097,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>12</v>
@@ -58115,7 +58108,7 @@
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>55</v>
@@ -58124,7 +58117,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>12</v>
@@ -58135,7 +58128,7 @@
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>55</v>
@@ -58144,7 +58137,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>12</v>
@@ -58155,7 +58148,7 @@
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>55</v>
@@ -58173,7 +58166,7 @@
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>55</v>
@@ -58182,7 +58175,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>12</v>
@@ -58193,7 +58186,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>55</v>
@@ -58211,7 +58204,7 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -58229,7 +58222,7 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>55</v>
@@ -58238,7 +58231,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>12</v>
@@ -58249,7 +58242,7 @@
     </row>
     <row r="33" spans="1:7" ht="17.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>55</v>
@@ -58267,7 +58260,7 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>55</v>
@@ -58276,7 +58269,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>12</v>
@@ -58287,7 +58280,7 @@
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>55</v>
@@ -58305,7 +58298,7 @@
     </row>
     <row r="36" spans="1:7" ht="28.5" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -58370,7 +58363,7 @@
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -58401,7 +58394,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>55</v>
@@ -58410,7 +58403,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -58421,7 +58414,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>55</v>
@@ -58439,10 +58432,10 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -58457,16 +58450,16 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
@@ -58477,10 +58470,10 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" s="5">
         <v>5</v>
@@ -58495,16 +58488,16 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="5">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -58515,16 +58508,16 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>12</v>
@@ -58535,10 +58528,10 @@
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>534</v>
       </c>
       <c r="C11" s="5">
         <v>8</v>
@@ -58553,10 +58546,10 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C12" s="5">
         <v>5</v>
@@ -58571,10 +58564,10 @@
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
@@ -58589,10 +58582,10 @@
     </row>
     <row r="14" spans="1:7" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C14" s="5">
         <v>7</v>
@@ -58607,10 +58600,10 @@
     </row>
     <row r="15" spans="1:7" ht="17.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C15" s="5">
         <v>12</v>
@@ -58625,10 +58618,10 @@
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>540</v>
       </c>
       <c r="C16" s="5">
         <v>2</v>
@@ -58643,10 +58636,10 @@
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C17" s="5">
         <v>5</v>
@@ -58661,16 +58654,16 @@
     </row>
     <row r="18" spans="1:7" ht="29.25" customHeight="1">
       <c r="A18" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
@@ -58681,16 +58674,16 @@
     </row>
     <row r="19" spans="1:7" ht="29.25" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>12</v>
@@ -58701,7 +58694,7 @@
     </row>
     <row r="20" spans="1:7" ht="28.5" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -59936,8 +59929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -60354,7 +60347,7 @@
     </row>
     <row r="22" spans="1:6" ht="23.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>144</v>
+        <v>545</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -60363,7 +60356,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>12</v>
@@ -60394,7 +60387,7 @@
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>21</v>
@@ -60434,7 +60427,7 @@
     </row>
     <row r="26" spans="1:6" ht="23.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>21</v>
@@ -60454,7 +60447,7 @@
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>21</v>
@@ -60474,7 +60467,7 @@
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>21</v>
@@ -60483,7 +60476,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>12</v>
@@ -60514,7 +60507,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>21</v>
@@ -60534,7 +60527,7 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>21</v>
@@ -60554,7 +60547,7 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>21</v>
@@ -60594,7 +60587,7 @@
     </row>
     <row r="34" spans="1:7" ht="28.5" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -60632,7 +60625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -60690,7 +60683,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -60710,7 +60703,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>21</v>
@@ -60730,7 +60723,7 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
@@ -60750,7 +60743,7 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>21</v>
@@ -60770,7 +60763,7 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
@@ -60790,10 +60783,10 @@
     </row>
     <row r="9" spans="1:7" ht="34.5" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="C9" s="5">
         <v>4</v>
@@ -60810,7 +60803,7 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>44</v>
@@ -60830,7 +60823,7 @@
     </row>
     <row r="11" spans="1:7" ht="23.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>44</v>
@@ -60839,7 +60832,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
@@ -60890,7 +60883,7 @@
     </row>
     <row r="14" spans="1:7" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>49</v>
@@ -60930,7 +60923,7 @@
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>49</v>
@@ -60959,7 +60952,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
@@ -60970,7 +60963,7 @@
     </row>
     <row r="18" spans="1:7" ht="17.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>49</v>
@@ -61010,7 +61003,7 @@
     </row>
     <row r="20" spans="1:7" ht="23.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>21</v>
@@ -61050,16 +61043,16 @@
     </row>
     <row r="22" spans="1:7" ht="17.25" customHeight="1">
       <c r="A22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="C22" s="5">
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>12</v>
@@ -61070,16 +61063,16 @@
     </row>
     <row r="23" spans="1:7" ht="23.5" customHeight="1">
       <c r="A23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="C23" s="5">
         <v>6</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>12</v>
@@ -61090,7 +61083,7 @@
     </row>
     <row r="24" spans="1:7" ht="17.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>55</v>
@@ -61110,7 +61103,7 @@
     </row>
     <row r="25" spans="1:7" ht="17.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>55</v>
@@ -61130,7 +61123,7 @@
     </row>
     <row r="26" spans="1:7" ht="23.5" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>62</v>
@@ -61139,7 +61132,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>12</v>
@@ -61150,7 +61143,7 @@
     </row>
     <row r="27" spans="1:7" ht="23.5" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>62</v>
@@ -61159,7 +61152,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>15</v>
@@ -61170,7 +61163,7 @@
     </row>
     <row r="28" spans="1:7" ht="17.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>62</v>
@@ -61179,7 +61172,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>12</v>
@@ -61190,7 +61183,7 @@
     </row>
     <row r="29" spans="1:7" ht="23.5" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>62</v>
@@ -61199,7 +61192,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>12</v>
@@ -61210,7 +61203,7 @@
     </row>
     <row r="30" spans="1:7" ht="23.5" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>62</v>
@@ -61219,7 +61212,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>12</v>
@@ -61230,7 +61223,7 @@
     </row>
     <row r="31" spans="1:7" ht="17.25" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>62</v>
@@ -61239,7 +61232,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>15</v>
@@ -61250,7 +61243,7 @@
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -61367,7 +61360,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>62</v>
@@ -61376,7 +61369,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
@@ -61387,7 +61380,7 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>62</v>
@@ -61396,7 +61389,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
@@ -61407,7 +61400,7 @@
     </row>
     <row r="7" spans="1:7" ht="23.5" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>62</v>
@@ -61416,7 +61409,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>15</v>
@@ -61427,7 +61420,7 @@
     </row>
     <row r="8" spans="1:7" ht="23.5" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>62</v>
@@ -61436,7 +61429,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>58</v>
@@ -61447,7 +61440,7 @@
     </row>
     <row r="9" spans="1:7" ht="33.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>62</v>
@@ -61456,7 +61449,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -61467,7 +61460,7 @@
     </row>
     <row r="10" spans="1:7" ht="23.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>62</v>
@@ -61476,7 +61469,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>15</v>
@@ -61487,7 +61480,7 @@
     </row>
     <row r="11" spans="1:7" ht="23.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>62</v>
@@ -61496,7 +61489,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
@@ -61507,7 +61500,7 @@
     </row>
     <row r="12" spans="1:7" ht="28.5" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -61573,7 +61566,7 @@
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -61604,16 +61597,16 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -61624,7 +61617,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>21</v>
@@ -61633,7 +61626,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
@@ -61644,7 +61637,7 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
@@ -61653,7 +61646,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
@@ -61664,7 +61657,7 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>21</v>
@@ -61673,7 +61666,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
@@ -61684,7 +61677,7 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
@@ -61693,7 +61686,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
@@ -61704,7 +61697,7 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
@@ -61713,7 +61706,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -61724,7 +61717,7 @@
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -61742,7 +61735,7 @@
     </row>
     <row r="11" spans="1:7" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -61780,7 +61773,7 @@
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>44</v>
@@ -61789,7 +61782,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>58</v>
@@ -61800,7 +61793,7 @@
     </row>
     <row r="14" spans="1:7" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>49</v>
@@ -61809,7 +61802,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>12</v>
@@ -61820,7 +61813,7 @@
     </row>
     <row r="15" spans="1:7" ht="17.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>49</v>
@@ -61829,7 +61822,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>12</v>
@@ -61840,7 +61833,7 @@
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>49</v>
@@ -61849,7 +61842,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>12</v>
@@ -61860,7 +61853,7 @@
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>55</v>
@@ -61869,7 +61862,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
@@ -61880,7 +61873,7 @@
     </row>
     <row r="18" spans="1:7" ht="17.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>55</v>
@@ -61889,7 +61882,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
@@ -61900,16 +61893,16 @@
     </row>
     <row r="19" spans="1:7" ht="23.5" customHeight="1">
       <c r="A19" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>12</v>
@@ -61920,16 +61913,16 @@
     </row>
     <row r="20" spans="1:7" ht="23.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>12</v>
@@ -61940,16 +61933,16 @@
     </row>
     <row r="21" spans="1:7" ht="17.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>12</v>
@@ -61960,16 +61953,16 @@
     </row>
     <row r="22" spans="1:7" ht="17.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>12</v>
@@ -61980,16 +61973,16 @@
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1">
       <c r="A23" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="C23" s="5">
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>12</v>
@@ -62000,7 +61993,7 @@
     </row>
     <row r="24" spans="1:7" ht="28.5" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -62065,7 +62058,7 @@
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -62096,7 +62089,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>69</v>
@@ -62105,7 +62098,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -62116,7 +62109,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>69</v>
@@ -62125,7 +62118,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
@@ -62136,7 +62129,7 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>69</v>
@@ -62145,7 +62138,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
@@ -62156,7 +62149,7 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>69</v>
@@ -62165,7 +62158,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
@@ -62185,7 +62178,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
@@ -62196,7 +62189,7 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>69</v>
@@ -62205,7 +62198,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -62216,7 +62209,7 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>69</v>
@@ -62225,7 +62218,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>12</v>
@@ -62236,7 +62229,7 @@
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>69</v>
@@ -62245,7 +62238,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
@@ -62256,7 +62249,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>69</v>
@@ -62265,7 +62258,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>12</v>
@@ -62276,16 +62269,16 @@
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>12</v>
@@ -62296,7 +62289,7 @@
     </row>
     <row r="14" spans="1:7" ht="23.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>10</v>
@@ -62305,7 +62298,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>12</v>
@@ -62316,7 +62309,7 @@
     </row>
     <row r="15" spans="1:7" ht="24" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
@@ -62325,7 +62318,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>12</v>
@@ -62336,7 +62329,7 @@
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>21</v>
@@ -62345,7 +62338,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>12</v>
@@ -62365,7 +62358,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
@@ -62385,7 +62378,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
@@ -62396,7 +62389,7 @@
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>21</v>
@@ -62405,7 +62398,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>12</v>
@@ -62425,7 +62418,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>12</v>
@@ -62436,7 +62429,7 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
@@ -62445,7 +62438,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>58</v>
@@ -62456,7 +62449,7 @@
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -62465,7 +62458,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>12</v>
@@ -62476,7 +62469,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>21</v>
@@ -62485,7 +62478,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>12</v>
@@ -62496,7 +62489,7 @@
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>21</v>
@@ -62505,7 +62498,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>12</v>
@@ -62516,7 +62509,7 @@
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>21</v>
@@ -62525,7 +62518,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>12</v>
@@ -62545,7 +62538,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>12</v>
@@ -62556,7 +62549,7 @@
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>49</v>
@@ -62565,7 +62558,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>12</v>
@@ -62576,7 +62569,7 @@
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>49</v>
@@ -62585,7 +62578,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>12</v>
@@ -62596,7 +62589,7 @@
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>49</v>
@@ -62605,7 +62598,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>12</v>
@@ -62616,16 +62609,16 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" customHeight="1">
       <c r="A30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="C30" s="5">
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>12</v>
@@ -62636,16 +62629,16 @@
     </row>
     <row r="31" spans="1:6" ht="23.5" customHeight="1">
       <c r="A31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="C31" s="5">
         <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>12</v>
@@ -62656,16 +62649,16 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C32" s="5">
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>12</v>
@@ -62676,7 +62669,7 @@
     </row>
     <row r="33" spans="1:7" ht="17.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>55</v>
@@ -62685,7 +62678,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>12</v>
@@ -62696,16 +62689,16 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C34" s="5">
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>12</v>
@@ -62716,7 +62709,7 @@
     </row>
     <row r="35" spans="1:7" ht="28.5" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
